--- a/ESPN Data.xlsx
+++ b/ESPN Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f4c56259eeb5841b/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sayza\3730\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B46E30D4-2299-4C14-A485-AA0C65BF92B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8CB5A6-32DA-41A8-AFDC-BF15B0A1580B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7D3D7DD9-F7F8-48D5-A48B-E35C37B909E8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="75">
   <si>
     <t>Team</t>
   </si>
@@ -50,9 +50,6 @@
     <t>ULM</t>
   </si>
   <si>
-    <t>W</t>
-  </si>
-  <si>
     <t>Arizona</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>Florida</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>South Carolina</t>
   </si>
   <si>
@@ -101,9 +95,6 @@
     <t>Vanderbilt</t>
   </si>
   <si>
-    <t xml:space="preserve">W </t>
-  </si>
-  <si>
     <t>National Championship</t>
   </si>
   <si>
@@ -123,12 +114,6 @@
   </si>
   <si>
     <t>Iowa</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>F</t>
   </si>
   <si>
     <t>Louisiana</t>
@@ -629,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977509C8-8706-4F0C-8079-C7C8DD297211}">
   <dimension ref="A1:D244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="D243" sqref="D243"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="D245" sqref="D245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,3409 +635,3409 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2">
         <v>2003</v>
       </c>
-      <c r="D2" t="s">
-        <v>29</v>
+      <c r="D2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
         <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3">
         <v>2003</v>
       </c>
-      <c r="D3" t="s">
-        <v>29</v>
+      <c r="D3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4">
         <v>2003</v>
       </c>
-      <c r="D4" t="s">
-        <v>29</v>
+      <c r="D4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5">
         <v>2003</v>
       </c>
-      <c r="D5" t="s">
-        <v>29</v>
+      <c r="D5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="C6">
         <v>2003</v>
       </c>
-      <c r="D6" t="s">
-        <v>29</v>
+      <c r="D6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2003</v>
       </c>
-      <c r="D7" t="s">
-        <v>29</v>
+      <c r="D7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
       </c>
       <c r="C8">
         <v>2003</v>
       </c>
-      <c r="D8" t="s">
-        <v>29</v>
+      <c r="D8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
       </c>
       <c r="C9">
         <v>2003</v>
       </c>
-      <c r="D9" t="s">
-        <v>29</v>
+      <c r="D9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
       </c>
       <c r="C10">
         <v>2003</v>
       </c>
-      <c r="D10" t="s">
-        <v>29</v>
+      <c r="D10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
       </c>
       <c r="C11">
         <v>2003</v>
       </c>
-      <c r="D11" t="s">
-        <v>29</v>
+      <c r="D11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
       </c>
       <c r="C12">
         <v>2003</v>
       </c>
-      <c r="D12" t="s">
-        <v>29</v>
+      <c r="D12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
       </c>
       <c r="C13">
         <v>2003</v>
       </c>
-      <c r="D13" t="s">
-        <v>29</v>
+      <c r="D13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
       </c>
       <c r="C14">
         <v>2004</v>
       </c>
-      <c r="D14" t="s">
-        <v>30</v>
+      <c r="D14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
       </c>
       <c r="C15">
         <v>2004</v>
       </c>
-      <c r="D15" t="s">
-        <v>30</v>
+      <c r="D15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
         <v>10</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
       </c>
       <c r="C16">
         <v>2004</v>
       </c>
-      <c r="D16" t="s">
-        <v>30</v>
+      <c r="D16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
       </c>
       <c r="C17">
         <v>2004</v>
       </c>
-      <c r="D17" t="s">
-        <v>30</v>
+      <c r="D17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
       </c>
       <c r="C18">
         <v>2004</v>
       </c>
-      <c r="D18" t="s">
-        <v>30</v>
+      <c r="D18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
       </c>
       <c r="C19">
         <v>2004</v>
       </c>
-      <c r="D19" t="s">
-        <v>30</v>
+      <c r="D19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
       </c>
       <c r="C20">
         <v>2004</v>
       </c>
-      <c r="D20" t="s">
-        <v>30</v>
+      <c r="D20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
       </c>
       <c r="C21">
         <v>2004</v>
       </c>
-      <c r="D21" t="s">
-        <v>30</v>
+      <c r="D21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
       </c>
       <c r="C22">
         <v>2004</v>
       </c>
-      <c r="D22" t="s">
-        <v>30</v>
+      <c r="D22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
       </c>
       <c r="C23">
         <v>2004</v>
       </c>
-      <c r="D23" t="s">
-        <v>30</v>
+      <c r="D23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
       </c>
       <c r="C24">
         <v>2004</v>
       </c>
-      <c r="D24" t="s">
-        <v>30</v>
+      <c r="D24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
       </c>
       <c r="C25">
         <v>2004</v>
       </c>
-      <c r="D25" t="s">
-        <v>30</v>
+      <c r="D25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" t="s">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
       </c>
       <c r="C26">
         <v>2005</v>
       </c>
-      <c r="D26" t="s">
-        <v>30</v>
+      <c r="D26">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
       </c>
       <c r="C27">
         <v>2005</v>
       </c>
-      <c r="D27" t="s">
-        <v>30</v>
+      <c r="D27">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
       </c>
       <c r="C28">
         <v>2005</v>
       </c>
-      <c r="D28" t="s">
-        <v>30</v>
+      <c r="D28">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" t="s">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
       </c>
       <c r="C29">
         <v>2005</v>
       </c>
-      <c r="D29" t="s">
-        <v>30</v>
+      <c r="D29">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
       </c>
       <c r="C30">
         <v>2005</v>
       </c>
-      <c r="D30" t="s">
-        <v>30</v>
+      <c r="D30">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
       </c>
       <c r="C31">
         <v>2005</v>
       </c>
-      <c r="D31" t="s">
-        <v>30</v>
+      <c r="D31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
       </c>
       <c r="C32">
         <v>2005</v>
       </c>
-      <c r="D32" t="s">
-        <v>30</v>
+      <c r="D32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" t="s">
-        <v>4</v>
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
       </c>
       <c r="C33">
         <v>2005</v>
       </c>
-      <c r="D33" t="s">
-        <v>30</v>
+      <c r="D33">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
       </c>
       <c r="C34">
         <v>2005</v>
       </c>
-      <c r="D34" t="s">
-        <v>30</v>
+      <c r="D34">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
       </c>
       <c r="C35">
         <v>2005</v>
       </c>
-      <c r="D35" t="s">
-        <v>30</v>
+      <c r="D35">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
       </c>
       <c r="C36">
         <v>2005</v>
       </c>
-      <c r="D36" t="s">
-        <v>30</v>
+      <c r="D36">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
       </c>
       <c r="C37">
         <v>2005</v>
       </c>
-      <c r="D37" t="s">
-        <v>30</v>
+      <c r="D37">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" t="s">
-        <v>4</v>
+        <v>24</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
       </c>
       <c r="C38">
         <v>2005</v>
       </c>
-      <c r="D38" t="s">
-        <v>30</v>
+      <c r="D38">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" t="s">
-        <v>4</v>
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
       </c>
       <c r="C39">
         <v>2006</v>
       </c>
-      <c r="D39" t="s">
-        <v>30</v>
+      <c r="D39">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" t="s">
         <v>4</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
       </c>
       <c r="C40">
         <v>2006</v>
       </c>
-      <c r="D40" t="s">
-        <v>30</v>
+      <c r="D40">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" t="s">
         <v>10</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
       </c>
       <c r="C41">
         <v>2006</v>
       </c>
-      <c r="D41" t="s">
-        <v>30</v>
+      <c r="D41">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" t="s">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
       </c>
       <c r="C42">
         <v>2006</v>
       </c>
-      <c r="D42" t="s">
-        <v>30</v>
+      <c r="D42">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
       </c>
       <c r="C43">
         <v>2006</v>
       </c>
-      <c r="D43" t="s">
-        <v>30</v>
+      <c r="D43">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
       </c>
       <c r="C44">
         <v>2006</v>
       </c>
-      <c r="D44" t="s">
-        <v>30</v>
+      <c r="D44">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>33</v>
-      </c>
-      <c r="B45" t="s">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
       </c>
       <c r="C45">
         <v>2006</v>
       </c>
-      <c r="D45" t="s">
-        <v>30</v>
+      <c r="D45">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" t="s">
-        <v>4</v>
+        <v>29</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
       </c>
       <c r="C46">
         <v>2006</v>
       </c>
-      <c r="D46" t="s">
-        <v>30</v>
+      <c r="D46">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" t="s">
-        <v>4</v>
+        <v>21</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
       </c>
       <c r="C47">
         <v>2006</v>
       </c>
-      <c r="D47" t="s">
-        <v>30</v>
+      <c r="D47">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>14</v>
-      </c>
-      <c r="B48" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
       </c>
       <c r="C48">
         <v>2006</v>
       </c>
-      <c r="D48" t="s">
-        <v>30</v>
+      <c r="D48">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
       </c>
       <c r="C49">
         <v>2006</v>
       </c>
-      <c r="D49" t="s">
-        <v>30</v>
+      <c r="D49">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
       </c>
       <c r="C50">
         <v>2006</v>
       </c>
-      <c r="D50" t="s">
-        <v>30</v>
+      <c r="D50">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>35</v>
-      </c>
-      <c r="B51" t="s">
-        <v>4</v>
+        <v>30</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
       </c>
       <c r="C51">
         <v>2006</v>
       </c>
-      <c r="D51" t="s">
-        <v>30</v>
+      <c r="D51">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
       </c>
       <c r="C52">
         <v>2007</v>
       </c>
-      <c r="D52" t="s">
-        <v>29</v>
+      <c r="D52">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>36</v>
-      </c>
-      <c r="B53" t="s">
-        <v>4</v>
+        <v>31</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
       </c>
       <c r="C53">
         <v>2007</v>
       </c>
-      <c r="D53" t="s">
-        <v>29</v>
+      <c r="D53">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>37</v>
-      </c>
-      <c r="B54" t="s">
-        <v>4</v>
+        <v>32</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
       </c>
       <c r="C54">
         <v>2007</v>
       </c>
-      <c r="D54" t="s">
-        <v>29</v>
+      <c r="D54">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
       </c>
       <c r="C55">
         <v>2007</v>
       </c>
-      <c r="D55" t="s">
-        <v>29</v>
+      <c r="D55">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>32</v>
-      </c>
-      <c r="B56" t="s">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
       </c>
       <c r="C56">
         <v>2007</v>
       </c>
-      <c r="D56" t="s">
-        <v>29</v>
+      <c r="D56">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
       </c>
       <c r="C57">
         <v>2007</v>
       </c>
-      <c r="D57" t="s">
-        <v>29</v>
+      <c r="D57">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>33</v>
-      </c>
-      <c r="B58" t="s">
-        <v>10</v>
+        <v>28</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
       </c>
       <c r="C58">
         <v>2007</v>
       </c>
-      <c r="D58" t="s">
-        <v>29</v>
+      <c r="D58">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>12</v>
-      </c>
-      <c r="B59" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
       </c>
       <c r="C59">
         <v>2007</v>
       </c>
-      <c r="D59" t="s">
-        <v>29</v>
+      <c r="D59">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>14</v>
-      </c>
-      <c r="B60" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
       </c>
       <c r="C60">
         <v>2007</v>
       </c>
-      <c r="D60" t="s">
-        <v>29</v>
+      <c r="D60">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
       </c>
       <c r="C61">
         <v>2007</v>
       </c>
-      <c r="D61" t="s">
-        <v>29</v>
+      <c r="D61">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>16</v>
-      </c>
-      <c r="B62" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
       </c>
       <c r="C62">
         <v>2007</v>
       </c>
-      <c r="D62" t="s">
-        <v>29</v>
+      <c r="D62">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>24</v>
-      </c>
-      <c r="B63" t="s">
-        <v>4</v>
+        <v>21</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
       </c>
       <c r="C63">
         <v>2007</v>
       </c>
-      <c r="D63" t="s">
-        <v>29</v>
+      <c r="D63">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>38</v>
-      </c>
-      <c r="B64" t="s">
-        <v>4</v>
+        <v>33</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
       </c>
       <c r="C64">
         <v>2007</v>
       </c>
-      <c r="D64" t="s">
-        <v>29</v>
+      <c r="D64">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>26</v>
-      </c>
-      <c r="B65" t="s">
-        <v>4</v>
+        <v>23</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
       </c>
       <c r="C65">
         <v>2008</v>
       </c>
-      <c r="D65" t="s">
-        <v>30</v>
+      <c r="D65">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>25</v>
-      </c>
-      <c r="B66" t="s">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
       </c>
       <c r="C66">
         <v>2008</v>
       </c>
-      <c r="D66" t="s">
-        <v>30</v>
+      <c r="D66">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>12</v>
-      </c>
-      <c r="B67" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
       </c>
       <c r="C67">
         <v>2008</v>
       </c>
-      <c r="D67" t="s">
-        <v>30</v>
+      <c r="D67">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
       </c>
       <c r="C68">
         <v>2008</v>
       </c>
-      <c r="D68" t="s">
-        <v>30</v>
+      <c r="D68">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>9</v>
-      </c>
-      <c r="B69" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
       </c>
       <c r="C69">
         <v>2008</v>
       </c>
-      <c r="D69" t="s">
-        <v>30</v>
+      <c r="D69">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B70" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
       </c>
       <c r="C70">
         <v>2008</v>
       </c>
-      <c r="D70" t="s">
-        <v>30</v>
+      <c r="D70">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
       </c>
       <c r="C71">
         <v>2008</v>
       </c>
-      <c r="D71" t="s">
-        <v>30</v>
+      <c r="D71">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>32</v>
-      </c>
-      <c r="B72" t="s">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
       </c>
       <c r="C72">
         <v>2008</v>
       </c>
-      <c r="D72" t="s">
-        <v>30</v>
+      <c r="D72">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>14</v>
-      </c>
-      <c r="B73" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
       </c>
       <c r="C73">
         <v>2008</v>
       </c>
-      <c r="D73" t="s">
-        <v>30</v>
+      <c r="D73">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>19</v>
-      </c>
-      <c r="B74" t="s">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
       </c>
       <c r="C74">
         <v>2008</v>
       </c>
-      <c r="D74" t="s">
-        <v>30</v>
+      <c r="D74">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>15</v>
-      </c>
-      <c r="B75" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
       </c>
       <c r="C75">
         <v>2008</v>
       </c>
-      <c r="D75" t="s">
-        <v>30</v>
+      <c r="D75">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>16</v>
-      </c>
-      <c r="B76" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
       </c>
       <c r="C76">
         <v>2008</v>
       </c>
-      <c r="D76" t="s">
-        <v>30</v>
+      <c r="D76">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>39</v>
-      </c>
-      <c r="B77" t="s">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
       </c>
       <c r="C77">
         <v>2008</v>
       </c>
-      <c r="D77" t="s">
-        <v>30</v>
+      <c r="D77">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>40</v>
-      </c>
-      <c r="B78" t="s">
-        <v>4</v>
+        <v>35</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
       </c>
       <c r="C78">
         <v>2009</v>
       </c>
-      <c r="D78" t="s">
-        <v>30</v>
+      <c r="D78">
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>20</v>
-      </c>
-      <c r="B79" t="s">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
       </c>
       <c r="C79">
         <v>2009</v>
       </c>
-      <c r="D79" t="s">
-        <v>30</v>
+      <c r="D79">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>31</v>
-      </c>
-      <c r="B80" t="s">
-        <v>4</v>
+        <v>26</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
       </c>
       <c r="C80">
         <v>2009</v>
       </c>
-      <c r="D80" t="s">
-        <v>30</v>
+      <c r="D80">
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
       </c>
       <c r="C81">
         <v>2009</v>
       </c>
-      <c r="D81" t="s">
-        <v>30</v>
+      <c r="D81">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>7</v>
-      </c>
-      <c r="B82" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
       </c>
       <c r="C82">
         <v>2009</v>
       </c>
-      <c r="D82" t="s">
-        <v>30</v>
+      <c r="D82">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>9</v>
-      </c>
-      <c r="B83" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
       </c>
       <c r="C83">
         <v>2009</v>
       </c>
-      <c r="D83" t="s">
-        <v>30</v>
+      <c r="D83">
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>12</v>
-      </c>
-      <c r="B84" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
       </c>
       <c r="C84">
         <v>2009</v>
       </c>
-      <c r="D84" t="s">
-        <v>30</v>
+      <c r="D84">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>32</v>
-      </c>
-      <c r="B85" t="s">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
       </c>
       <c r="C85">
         <v>2009</v>
       </c>
-      <c r="D85" t="s">
-        <v>30</v>
+      <c r="D85">
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>14</v>
-      </c>
-      <c r="B86" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
       </c>
       <c r="C86">
         <v>2009</v>
       </c>
-      <c r="D86" t="s">
-        <v>30</v>
+      <c r="D86">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>13</v>
-      </c>
-      <c r="B87" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
       </c>
       <c r="C87">
         <v>2009</v>
       </c>
-      <c r="D87" t="s">
-        <v>30</v>
+      <c r="D87">
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>15</v>
-      </c>
-      <c r="B88" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
       </c>
       <c r="C88">
         <v>2009</v>
       </c>
-      <c r="D88" t="s">
-        <v>30</v>
+      <c r="D88">
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>41</v>
-      </c>
-      <c r="B89" t="s">
-        <v>4</v>
+        <v>36</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
       </c>
       <c r="C89">
         <v>2009</v>
       </c>
-      <c r="D89" t="s">
-        <v>30</v>
+      <c r="D89">
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>42</v>
-      </c>
-      <c r="B90" t="s">
-        <v>10</v>
+        <v>37</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
       </c>
       <c r="C90">
         <v>2009</v>
       </c>
-      <c r="D90" t="s">
-        <v>30</v>
+      <c r="D90">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>43</v>
-      </c>
-      <c r="B91" t="s">
-        <v>4</v>
+        <v>38</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
       </c>
       <c r="C91">
         <v>2010</v>
       </c>
-      <c r="D91" t="s">
-        <v>30</v>
+      <c r="D91">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>20</v>
-      </c>
-      <c r="B92" t="s">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
       </c>
       <c r="C92">
         <v>2010</v>
       </c>
-      <c r="D92" t="s">
-        <v>30</v>
+      <c r="D92">
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>8</v>
-      </c>
-      <c r="B93" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
       </c>
       <c r="C93">
         <v>2010</v>
       </c>
-      <c r="D93" t="s">
-        <v>30</v>
+      <c r="D93">
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>44</v>
-      </c>
-      <c r="B94" t="s">
-        <v>4</v>
+        <v>39</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
       </c>
       <c r="C94">
         <v>2010</v>
       </c>
-      <c r="D94" t="s">
-        <v>30</v>
+      <c r="D94">
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>24</v>
-      </c>
-      <c r="B95" t="s">
-        <v>4</v>
+        <v>21</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
       </c>
       <c r="C95">
         <v>2010</v>
       </c>
-      <c r="D95" t="s">
-        <v>30</v>
+      <c r="D95">
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>9</v>
-      </c>
-      <c r="B96" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
       </c>
       <c r="C96">
         <v>2010</v>
       </c>
-      <c r="D96" t="s">
-        <v>30</v>
+      <c r="D96">
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>45</v>
-      </c>
-      <c r="B97" t="s">
-        <v>4</v>
+        <v>40</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
       </c>
       <c r="C97">
         <v>2010</v>
       </c>
-      <c r="D97" t="s">
-        <v>30</v>
+      <c r="D97">
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>12</v>
-      </c>
-      <c r="B98" t="s">
         <v>10</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
       </c>
       <c r="C98">
         <v>2010</v>
       </c>
-      <c r="D98" t="s">
-        <v>30</v>
+      <c r="D98">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>14</v>
-      </c>
-      <c r="B99" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
       </c>
       <c r="C99">
         <v>2010</v>
       </c>
-      <c r="D99" t="s">
-        <v>30</v>
+      <c r="D99">
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>3</v>
       </c>
-      <c r="B100" t="s">
-        <v>4</v>
+      <c r="B100">
+        <v>1</v>
       </c>
       <c r="C100">
         <v>2010</v>
       </c>
-      <c r="D100" t="s">
-        <v>30</v>
+      <c r="D100">
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>15</v>
-      </c>
-      <c r="B101" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
       </c>
       <c r="C101">
         <v>2010</v>
       </c>
-      <c r="D101" t="s">
-        <v>30</v>
+      <c r="D101">
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>16</v>
-      </c>
-      <c r="B102" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
       </c>
       <c r="C102">
         <v>2010</v>
       </c>
-      <c r="D102" t="s">
-        <v>30</v>
+      <c r="D102">
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>46</v>
-      </c>
-      <c r="B103" t="s">
-        <v>4</v>
+        <v>41</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
       </c>
       <c r="C103">
         <v>2010</v>
       </c>
-      <c r="D103" t="s">
-        <v>30</v>
+      <c r="D103">
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>47</v>
-      </c>
-      <c r="B104" t="s">
-        <v>4</v>
+        <v>42</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
       </c>
       <c r="C104">
         <v>2011</v>
       </c>
-      <c r="D104" t="s">
-        <v>30</v>
+      <c r="D104">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>48</v>
-      </c>
-      <c r="B105" t="s">
-        <v>4</v>
+        <v>43</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
       </c>
       <c r="C105">
         <v>2011</v>
       </c>
-      <c r="D105" t="s">
-        <v>30</v>
+      <c r="D105">
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>8</v>
-      </c>
-      <c r="B106" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
       </c>
       <c r="C106">
         <v>2011</v>
       </c>
-      <c r="D106" t="s">
-        <v>30</v>
+      <c r="D106">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>44</v>
-      </c>
-      <c r="B107" t="s">
-        <v>4</v>
+        <v>39</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
       </c>
       <c r="C107">
         <v>2011</v>
       </c>
-      <c r="D107" t="s">
-        <v>30</v>
+      <c r="D107">
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>33</v>
-      </c>
-      <c r="B108" t="s">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
       </c>
       <c r="C108">
         <v>2011</v>
       </c>
-      <c r="D108" t="s">
-        <v>30</v>
+      <c r="D108">
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>9</v>
-      </c>
-      <c r="B109" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
       </c>
       <c r="C109">
         <v>2011</v>
       </c>
-      <c r="D109" t="s">
-        <v>30</v>
+      <c r="D109">
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>24</v>
-      </c>
-      <c r="B110" t="s">
-        <v>4</v>
+        <v>21</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
       </c>
       <c r="C110">
         <v>2011</v>
       </c>
-      <c r="D110" t="s">
-        <v>30</v>
+      <c r="D110">
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>12</v>
-      </c>
-      <c r="B111" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
       </c>
       <c r="C111">
         <v>2011</v>
       </c>
-      <c r="D111" t="s">
-        <v>30</v>
+      <c r="D111">
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>14</v>
-      </c>
-      <c r="B112" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
       </c>
       <c r="C112">
         <v>2011</v>
       </c>
-      <c r="D112" t="s">
-        <v>30</v>
+      <c r="D112">
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>49</v>
-      </c>
-      <c r="B113" t="s">
-        <v>4</v>
+        <v>44</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
       </c>
       <c r="C113">
         <v>2011</v>
       </c>
-      <c r="D113" t="s">
-        <v>30</v>
+      <c r="D113">
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>15</v>
-      </c>
-      <c r="B114" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
       </c>
       <c r="C114">
         <v>2011</v>
       </c>
-      <c r="D114" t="s">
-        <v>30</v>
+      <c r="D114">
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>50</v>
-      </c>
-      <c r="B115" t="s">
-        <v>4</v>
+        <v>45</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
       </c>
       <c r="C115">
         <v>2011</v>
       </c>
-      <c r="D115" t="s">
-        <v>30</v>
+      <c r="D115">
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>7</v>
-      </c>
-      <c r="B116" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
       </c>
       <c r="C116">
         <v>2011</v>
       </c>
-      <c r="D116" t="s">
-        <v>30</v>
+      <c r="D116">
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>14</v>
-      </c>
-      <c r="B117" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
       </c>
       <c r="C117">
         <v>2011</v>
       </c>
-      <c r="D117" t="s">
-        <v>30</v>
+      <c r="D117">
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>25</v>
-      </c>
-      <c r="B118" t="s">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
       </c>
       <c r="C118">
         <v>2012</v>
       </c>
-      <c r="D118" t="s">
-        <v>30</v>
+      <c r="D118">
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>40</v>
-      </c>
-      <c r="B119" t="s">
-        <v>4</v>
+        <v>35</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
       </c>
       <c r="C119">
         <v>2012</v>
       </c>
-      <c r="D119" t="s">
-        <v>30</v>
+      <c r="D119">
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>51</v>
-      </c>
-      <c r="B120" t="s">
-        <v>4</v>
+        <v>46</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
       </c>
       <c r="C120">
         <v>2012</v>
       </c>
-      <c r="D120" t="s">
-        <v>30</v>
+      <c r="D120">
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>12</v>
-      </c>
-      <c r="B121" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
       </c>
       <c r="C121">
         <v>2012</v>
       </c>
-      <c r="D121" t="s">
-        <v>30</v>
+      <c r="D121">
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>52</v>
-      </c>
-      <c r="B122" t="s">
-        <v>4</v>
+        <v>47</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
       </c>
       <c r="C122">
         <v>2012</v>
       </c>
-      <c r="D122" t="s">
-        <v>30</v>
+      <c r="D122">
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>9</v>
-      </c>
-      <c r="B123" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
       </c>
       <c r="C123">
         <v>2012</v>
       </c>
-      <c r="D123" t="s">
-        <v>30</v>
+      <c r="D123">
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>11</v>
-      </c>
-      <c r="B124" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
       </c>
       <c r="C124">
         <v>2012</v>
       </c>
-      <c r="D124" t="s">
-        <v>30</v>
+      <c r="D124">
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>46</v>
-      </c>
-      <c r="B125" t="s">
-        <v>4</v>
+        <v>41</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
       </c>
       <c r="C125">
         <v>2012</v>
       </c>
-      <c r="D125" t="s">
-        <v>30</v>
+      <c r="D125">
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>14</v>
-      </c>
-      <c r="B126" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
       </c>
       <c r="C126">
         <v>2012</v>
       </c>
-      <c r="D126" t="s">
-        <v>30</v>
+      <c r="D126">
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>8</v>
-      </c>
-      <c r="B127" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
       </c>
       <c r="C127">
         <v>2012</v>
       </c>
-      <c r="D127" t="s">
-        <v>30</v>
+      <c r="D127">
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>15</v>
-      </c>
-      <c r="B128" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
       </c>
       <c r="C128">
         <v>2012</v>
       </c>
-      <c r="D128" t="s">
-        <v>30</v>
+      <c r="D128">
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>16</v>
-      </c>
-      <c r="B129" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
       </c>
       <c r="C129">
         <v>2012</v>
       </c>
-      <c r="D129" t="s">
-        <v>30</v>
+      <c r="D129">
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>53</v>
-      </c>
-      <c r="B130" t="s">
-        <v>10</v>
+        <v>48</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
       </c>
       <c r="C130">
         <v>2012</v>
       </c>
-      <c r="D130" t="s">
-        <v>30</v>
+      <c r="D130">
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>54</v>
-      </c>
-      <c r="B131" t="s">
-        <v>4</v>
+        <v>49</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
       </c>
       <c r="C131">
         <v>2013</v>
       </c>
-      <c r="D131" t="s">
-        <v>30</v>
+      <c r="D131">
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>55</v>
-      </c>
-      <c r="B132" t="s">
-        <v>4</v>
+        <v>50</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
       </c>
       <c r="C132">
         <v>2013</v>
       </c>
-      <c r="D132" t="s">
-        <v>30</v>
+      <c r="D132">
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>56</v>
-      </c>
-      <c r="B133" t="s">
-        <v>4</v>
+        <v>51</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
       </c>
       <c r="C133">
         <v>2013</v>
       </c>
-      <c r="D133" t="s">
-        <v>30</v>
+      <c r="D133">
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>12</v>
-      </c>
-      <c r="B134" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
       </c>
       <c r="C134">
         <v>2013</v>
       </c>
-      <c r="D134" t="s">
-        <v>30</v>
+      <c r="D134">
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>7</v>
-      </c>
-      <c r="B135" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
       </c>
       <c r="C135">
         <v>2013</v>
       </c>
-      <c r="D135" t="s">
-        <v>30</v>
+      <c r="D135">
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>8</v>
-      </c>
-      <c r="B136" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
       </c>
       <c r="C136">
         <v>2013</v>
       </c>
-      <c r="D136" t="s">
-        <v>30</v>
+      <c r="D136">
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>9</v>
-      </c>
-      <c r="B137" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
       </c>
       <c r="C137">
         <v>2013</v>
       </c>
-      <c r="D137" t="s">
-        <v>30</v>
+      <c r="D137">
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>15</v>
-      </c>
-      <c r="B138" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
       </c>
       <c r="C138">
         <v>2013</v>
       </c>
-      <c r="D138" t="s">
-        <v>30</v>
+      <c r="D138">
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>57</v>
-      </c>
-      <c r="B139" t="s">
-        <v>4</v>
+        <v>52</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
       </c>
       <c r="C139">
         <v>2013</v>
       </c>
-      <c r="D139" t="s">
-        <v>30</v>
+      <c r="D139">
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>14</v>
-      </c>
-      <c r="B140" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
       </c>
       <c r="C140">
         <v>2013</v>
       </c>
-      <c r="D140" t="s">
-        <v>30</v>
+      <c r="D140">
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>46</v>
-      </c>
-      <c r="B141" t="s">
-        <v>4</v>
+        <v>41</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
       </c>
       <c r="C141">
         <v>2013</v>
       </c>
-      <c r="D141" t="s">
-        <v>30</v>
+      <c r="D141">
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>16</v>
-      </c>
-      <c r="B142" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
       </c>
       <c r="C142">
         <v>2013</v>
       </c>
-      <c r="D142" t="s">
-        <v>30</v>
+      <c r="D142">
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>28</v>
-      </c>
-      <c r="B143" t="s">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
       </c>
       <c r="C143">
         <v>2013</v>
       </c>
-      <c r="D143" t="s">
-        <v>30</v>
+      <c r="D143">
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>58</v>
-      </c>
-      <c r="B144" t="s">
-        <v>4</v>
+        <v>53</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
       </c>
       <c r="C144">
         <v>2014</v>
       </c>
-      <c r="D144" t="s">
-        <v>30</v>
+      <c r="D144">
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>59</v>
-      </c>
-      <c r="B145" t="s">
-        <v>4</v>
+        <v>54</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
       </c>
       <c r="C145">
         <v>2014</v>
       </c>
-      <c r="D145" t="s">
-        <v>30</v>
+      <c r="D145">
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>3</v>
       </c>
-      <c r="B146" t="s">
-        <v>4</v>
+      <c r="B146">
+        <v>1</v>
       </c>
       <c r="C146">
         <v>2014</v>
       </c>
-      <c r="D146" t="s">
-        <v>30</v>
+      <c r="D146">
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>8</v>
-      </c>
-      <c r="B147" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
       </c>
       <c r="C147">
         <v>2014</v>
       </c>
-      <c r="D147" t="s">
-        <v>30</v>
+      <c r="D147">
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>60</v>
-      </c>
-      <c r="B148" t="s">
-        <v>4</v>
+        <v>55</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
       </c>
       <c r="C148">
         <v>2014</v>
       </c>
-      <c r="D148" t="s">
-        <v>30</v>
+      <c r="D148">
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>12</v>
-      </c>
-      <c r="B149" t="s">
         <v>10</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
       </c>
       <c r="C149">
         <v>2014</v>
       </c>
-      <c r="D149" t="s">
-        <v>30</v>
+      <c r="D149">
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>9</v>
-      </c>
-      <c r="B150" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
       </c>
       <c r="C150">
         <v>2014</v>
       </c>
-      <c r="D150" t="s">
-        <v>30</v>
+      <c r="D150">
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>33</v>
-      </c>
-      <c r="B151" t="s">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
       </c>
       <c r="C151">
         <v>2014</v>
       </c>
-      <c r="D151" t="s">
-        <v>30</v>
+      <c r="D151">
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>15</v>
-      </c>
-      <c r="B152" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
       </c>
       <c r="C152">
         <v>2014</v>
       </c>
-      <c r="D152" t="s">
-        <v>30</v>
+      <c r="D152">
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>14</v>
-      </c>
-      <c r="B153" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
       </c>
       <c r="C153">
         <v>2014</v>
       </c>
-      <c r="D153" t="s">
-        <v>30</v>
+      <c r="D153">
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>16</v>
-      </c>
-      <c r="B154" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
       </c>
       <c r="C154">
         <v>2014</v>
       </c>
-      <c r="D154" t="s">
-        <v>30</v>
+      <c r="D154">
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>46</v>
-      </c>
-      <c r="B155" t="s">
-        <v>4</v>
+        <v>41</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
       </c>
       <c r="C155">
         <v>2014</v>
       </c>
-      <c r="D155" t="s">
-        <v>30</v>
+      <c r="D155">
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>35</v>
-      </c>
-      <c r="B156" t="s">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
       </c>
       <c r="C156">
         <v>2014</v>
       </c>
-      <c r="D156" t="s">
-        <v>30</v>
+      <c r="D156">
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>8</v>
-      </c>
-      <c r="B157" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
       </c>
       <c r="C157">
         <v>2015</v>
       </c>
-      <c r="D157" t="s">
-        <v>30</v>
+      <c r="D157">
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>12</v>
-      </c>
-      <c r="B158" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
       </c>
       <c r="C158">
         <v>2015</v>
       </c>
-      <c r="D158" t="s">
-        <v>30</v>
+      <c r="D158">
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>61</v>
-      </c>
-      <c r="B159" t="s">
-        <v>4</v>
+        <v>56</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
       </c>
       <c r="C159">
         <v>2015</v>
       </c>
-      <c r="D159" t="s">
-        <v>30</v>
+      <c r="D159">
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>62</v>
-      </c>
-      <c r="B160" t="s">
-        <v>4</v>
+        <v>57</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
       </c>
       <c r="C160">
         <v>2015</v>
       </c>
-      <c r="D160" t="s">
-        <v>30</v>
+      <c r="D160">
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>11</v>
-      </c>
-      <c r="B161" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
       </c>
       <c r="C161">
         <v>2015</v>
       </c>
-      <c r="D161" t="s">
-        <v>30</v>
+      <c r="D161">
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>9</v>
-      </c>
-      <c r="B162" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
       </c>
       <c r="C162">
         <v>2015</v>
       </c>
-      <c r="D162" t="s">
-        <v>30</v>
+      <c r="D162">
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>49</v>
-      </c>
-      <c r="B163" t="s">
-        <v>4</v>
+        <v>44</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
       </c>
       <c r="C163">
         <v>2015</v>
       </c>
-      <c r="D163" t="s">
-        <v>30</v>
+      <c r="D163">
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>14</v>
-      </c>
-      <c r="B164" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
       </c>
       <c r="C164">
         <v>2015</v>
       </c>
-      <c r="D164" t="s">
-        <v>30</v>
+      <c r="D164">
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>16</v>
-      </c>
-      <c r="B165" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
       </c>
       <c r="C165">
         <v>2015</v>
       </c>
-      <c r="D165" t="s">
-        <v>30</v>
+      <c r="D165">
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>15</v>
-      </c>
-      <c r="B166" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
       </c>
       <c r="C166">
         <v>2015</v>
       </c>
-      <c r="D166" t="s">
-        <v>30</v>
+      <c r="D166">
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>46</v>
-      </c>
-      <c r="B167" t="s">
-        <v>4</v>
+        <v>41</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
       </c>
       <c r="C167">
         <v>2015</v>
       </c>
-      <c r="D167" t="s">
-        <v>30</v>
+      <c r="D167">
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>63</v>
-      </c>
-      <c r="B168" t="s">
-        <v>4</v>
+        <v>58</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
       </c>
       <c r="C168">
         <v>2015</v>
       </c>
-      <c r="D168" t="s">
-        <v>30</v>
+      <c r="D168">
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>58</v>
-      </c>
-      <c r="B169" t="s">
-        <v>10</v>
+        <v>53</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
       </c>
       <c r="C169">
         <v>2016</v>
       </c>
-      <c r="D169" t="s">
-        <v>30</v>
+      <c r="D169">
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>64</v>
-      </c>
-      <c r="B170" t="s">
-        <v>4</v>
+        <v>59</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
       </c>
       <c r="C170">
         <v>2016</v>
       </c>
-      <c r="D170" t="s">
-        <v>30</v>
+      <c r="D170">
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>8</v>
-      </c>
-      <c r="B171" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
       </c>
       <c r="C171">
         <v>2016</v>
       </c>
-      <c r="D171" t="s">
-        <v>30</v>
+      <c r="D171">
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>12</v>
-      </c>
-      <c r="B172" t="s">
         <v>10</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
       </c>
       <c r="C172">
         <v>2016</v>
       </c>
-      <c r="D172" t="s">
-        <v>30</v>
+      <c r="D172">
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>65</v>
-      </c>
-      <c r="B173" t="s">
-        <v>4</v>
+        <v>60</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
       </c>
       <c r="C173">
         <v>2016</v>
       </c>
-      <c r="D173" t="s">
-        <v>30</v>
+      <c r="D173">
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>66</v>
-      </c>
-      <c r="B174" t="s">
-        <v>4</v>
+        <v>61</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
       </c>
       <c r="C174">
         <v>2016</v>
       </c>
-      <c r="D174" t="s">
-        <v>30</v>
+      <c r="D174">
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>15</v>
-      </c>
-      <c r="B175" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
       </c>
       <c r="C175">
         <v>2016</v>
       </c>
-      <c r="D175" t="s">
-        <v>30</v>
+      <c r="D175">
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>14</v>
-      </c>
-      <c r="B176" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
       </c>
       <c r="C176">
         <v>2016</v>
       </c>
-      <c r="D176" t="s">
-        <v>30</v>
+      <c r="D176">
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>16</v>
-      </c>
-      <c r="B177" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
       </c>
       <c r="C177">
         <v>2016</v>
       </c>
-      <c r="D177" t="s">
-        <v>30</v>
+      <c r="D177">
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>9</v>
-      </c>
-      <c r="B178" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
       </c>
       <c r="C178">
         <v>2016</v>
       </c>
-      <c r="D178" t="s">
-        <v>30</v>
+      <c r="D178">
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>46</v>
-      </c>
-      <c r="B179" t="s">
-        <v>4</v>
+        <v>41</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
       </c>
       <c r="C179">
         <v>2016</v>
       </c>
-      <c r="D179" t="s">
-        <v>30</v>
+      <c r="D179">
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>67</v>
-      </c>
-      <c r="B180" t="s">
-        <v>4</v>
+        <v>62</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
       </c>
       <c r="C180">
         <v>2016</v>
       </c>
-      <c r="D180" t="s">
-        <v>30</v>
+      <c r="D180">
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>68</v>
-      </c>
-      <c r="B181" t="s">
-        <v>4</v>
+        <v>63</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
       </c>
       <c r="C181">
         <v>2017</v>
       </c>
-      <c r="D181" t="s">
-        <v>30</v>
+      <c r="D181">
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>69</v>
-      </c>
-      <c r="B182" t="s">
-        <v>4</v>
+        <v>64</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
       </c>
       <c r="C182">
         <v>2017</v>
       </c>
-      <c r="D182" t="s">
-        <v>30</v>
+      <c r="D182">
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>8</v>
-      </c>
-      <c r="B183" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
       </c>
       <c r="C183">
         <v>2017</v>
       </c>
-      <c r="D183" t="s">
-        <v>30</v>
+      <c r="D183">
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>61</v>
-      </c>
-      <c r="B184" t="s">
-        <v>4</v>
+        <v>56</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
       </c>
       <c r="C184">
         <v>2017</v>
       </c>
-      <c r="D184" t="s">
-        <v>30</v>
+      <c r="D184">
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>19</v>
-      </c>
-      <c r="B185" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
       </c>
       <c r="C185">
         <v>2017</v>
       </c>
-      <c r="D185" t="s">
-        <v>30</v>
+      <c r="D185">
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>9</v>
-      </c>
-      <c r="B186" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
       </c>
       <c r="C186">
         <v>2017</v>
       </c>
-      <c r="D186" t="s">
-        <v>30</v>
+      <c r="D186">
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>12</v>
-      </c>
-      <c r="B187" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
       </c>
       <c r="C187">
         <v>2017</v>
       </c>
-      <c r="D187" t="s">
-        <v>30</v>
+      <c r="D187">
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>15</v>
-      </c>
-      <c r="B188" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
       </c>
       <c r="C188">
         <v>2017</v>
       </c>
-      <c r="D188" t="s">
-        <v>30</v>
+      <c r="D188">
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>14</v>
-      </c>
-      <c r="B189" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
       </c>
       <c r="C189">
         <v>2017</v>
       </c>
-      <c r="D189" t="s">
-        <v>30</v>
+      <c r="D189">
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>16</v>
-      </c>
-      <c r="B190" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
       </c>
       <c r="C190">
         <v>2017</v>
       </c>
-      <c r="D190" t="s">
-        <v>30</v>
+      <c r="D190">
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>24</v>
-      </c>
-      <c r="B191" t="s">
-        <v>4</v>
+        <v>21</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
       </c>
       <c r="C191">
         <v>2017</v>
       </c>
-      <c r="D191" t="s">
-        <v>30</v>
+      <c r="D191">
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>46</v>
-      </c>
-      <c r="B192" t="s">
-        <v>4</v>
+        <v>41</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
       </c>
       <c r="C192">
         <v>2017</v>
       </c>
-      <c r="D192" t="s">
-        <v>30</v>
+      <c r="D192">
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>35</v>
-      </c>
-      <c r="B193" t="s">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
       </c>
       <c r="C193">
         <v>2017</v>
       </c>
-      <c r="D193" t="s">
-        <v>30</v>
+      <c r="D193">
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>27</v>
-      </c>
-      <c r="B194" t="s">
-        <v>4</v>
+        <v>24</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
       </c>
       <c r="C194">
         <v>2018</v>
       </c>
-      <c r="D194" t="s">
-        <v>30</v>
+      <c r="D194">
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>70</v>
-      </c>
-      <c r="B195" t="s">
-        <v>4</v>
+        <v>65</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
       </c>
       <c r="C195">
         <v>2018</v>
       </c>
-      <c r="D195" t="s">
-        <v>30</v>
+      <c r="D195">
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>12</v>
-      </c>
-      <c r="B196" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
       </c>
       <c r="C196">
         <v>2018</v>
       </c>
-      <c r="D196" t="s">
-        <v>30</v>
+      <c r="D196">
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>13</v>
-      </c>
-      <c r="B197" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
       </c>
       <c r="C197">
         <v>2018</v>
       </c>
-      <c r="D197" t="s">
-        <v>30</v>
+      <c r="D197">
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>15</v>
-      </c>
-      <c r="B198" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
       </c>
       <c r="C198">
         <v>2018</v>
       </c>
-      <c r="D198" t="s">
-        <v>30</v>
+      <c r="D198">
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>9</v>
-      </c>
-      <c r="B199" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
       </c>
       <c r="C199">
         <v>2018</v>
       </c>
-      <c r="D199" t="s">
-        <v>30</v>
+      <c r="D199">
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>7</v>
-      </c>
-      <c r="B200" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
       </c>
       <c r="C200">
         <v>2018</v>
       </c>
-      <c r="D200" t="s">
-        <v>30</v>
+      <c r="D200">
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>8</v>
-      </c>
-      <c r="B201" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
       </c>
       <c r="C201">
         <v>2018</v>
       </c>
-      <c r="D201" t="s">
-        <v>30</v>
+      <c r="D201">
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>14</v>
-      </c>
-      <c r="B202" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
       </c>
       <c r="C202">
         <v>2018</v>
       </c>
-      <c r="D202" t="s">
-        <v>30</v>
+      <c r="D202">
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>16</v>
-      </c>
-      <c r="B203" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
       </c>
       <c r="C203">
         <v>2018</v>
       </c>
-      <c r="D203" t="s">
-        <v>30</v>
+      <c r="D203">
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>71</v>
-      </c>
-      <c r="B204" t="s">
-        <v>4</v>
+        <v>66</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
       </c>
       <c r="C204">
         <v>2018</v>
       </c>
-      <c r="D204" t="s">
-        <v>30</v>
+      <c r="D204">
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>46</v>
-      </c>
-      <c r="B205" t="s">
-        <v>10</v>
+        <v>41</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
       </c>
       <c r="C205">
         <v>2018</v>
       </c>
-      <c r="D205" t="s">
-        <v>30</v>
+      <c r="D205">
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>72</v>
-      </c>
-      <c r="B206" t="s">
-        <v>4</v>
+        <v>67</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
       </c>
       <c r="C206">
         <v>2018</v>
       </c>
-      <c r="D206" t="s">
-        <v>30</v>
+      <c r="D206">
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>73</v>
-      </c>
-      <c r="B207" t="s">
-        <v>4</v>
+        <v>68</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
       </c>
       <c r="C207">
         <v>2019</v>
       </c>
-      <c r="D207" t="s">
-        <v>29</v>
+      <c r="D207">
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>74</v>
-      </c>
-      <c r="B208" t="s">
-        <v>4</v>
+        <v>69</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
       </c>
       <c r="C208">
         <v>2019</v>
       </c>
-      <c r="D208" t="s">
-        <v>29</v>
+      <c r="D208">
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>48</v>
-      </c>
-      <c r="B209" t="s">
-        <v>4</v>
+        <v>43</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
       </c>
       <c r="C209">
         <v>2019</v>
       </c>
-      <c r="D209" t="s">
-        <v>29</v>
+      <c r="D209">
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>20</v>
-      </c>
-      <c r="B210" t="s">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
       </c>
       <c r="C210">
         <v>2019</v>
       </c>
-      <c r="D210" t="s">
-        <v>29</v>
+      <c r="D210">
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>75</v>
-      </c>
-      <c r="B211" t="s">
-        <v>4</v>
+        <v>70</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
       </c>
       <c r="C211">
         <v>2019</v>
       </c>
-      <c r="D211" t="s">
-        <v>29</v>
+      <c r="D211">
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>9</v>
-      </c>
-      <c r="B212" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
       </c>
       <c r="C212">
         <v>2019</v>
       </c>
-      <c r="D212" t="s">
-        <v>29</v>
+      <c r="D212">
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>8</v>
-      </c>
-      <c r="B213" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
       </c>
       <c r="C213">
         <v>2019</v>
       </c>
-      <c r="D213" t="s">
-        <v>29</v>
+      <c r="D213">
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>12</v>
-      </c>
-      <c r="B214" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
       </c>
       <c r="C214">
         <v>2019</v>
       </c>
-      <c r="D214" t="s">
-        <v>29</v>
+      <c r="D214">
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>14</v>
-      </c>
-      <c r="B215" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
       </c>
       <c r="C215">
         <v>2019</v>
       </c>
-      <c r="D215" t="s">
-        <v>29</v>
+      <c r="D215">
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>15</v>
-      </c>
-      <c r="B216" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
       </c>
       <c r="C216">
         <v>2019</v>
       </c>
-      <c r="D216" t="s">
-        <v>29</v>
+      <c r="D216">
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>16</v>
-      </c>
-      <c r="B217" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
       </c>
       <c r="C217">
         <v>2019</v>
       </c>
-      <c r="D217" t="s">
-        <v>29</v>
+      <c r="D217">
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>46</v>
-      </c>
-      <c r="B218" t="s">
-        <v>4</v>
+        <v>41</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
       </c>
       <c r="C218">
         <v>2019</v>
       </c>
-      <c r="D218" t="s">
-        <v>29</v>
+      <c r="D218">
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>7</v>
-      </c>
-      <c r="B219" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
       </c>
       <c r="C219">
         <v>2019</v>
       </c>
-      <c r="D219" t="s">
-        <v>29</v>
+      <c r="D219">
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>76</v>
-      </c>
-      <c r="B220" t="s">
-        <v>4</v>
+        <v>71</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
       </c>
       <c r="C220">
         <v>2019</v>
       </c>
-      <c r="D220" t="s">
-        <v>29</v>
+      <c r="D220">
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>53</v>
-      </c>
-      <c r="B221" t="s">
-        <v>4</v>
+        <v>48</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
       </c>
       <c r="C221">
         <v>2019</v>
       </c>
-      <c r="D221" t="s">
-        <v>29</v>
+      <c r="D221">
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>8</v>
-      </c>
-      <c r="B222" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
       </c>
       <c r="C222">
         <v>2020</v>
       </c>
-      <c r="D222" t="s">
-        <v>30</v>
+      <c r="D222">
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>20</v>
-      </c>
-      <c r="B223" t="s">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
       </c>
       <c r="C223">
         <v>2020</v>
       </c>
-      <c r="D223" t="s">
-        <v>30</v>
+      <c r="D223">
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>65</v>
-      </c>
-      <c r="B224" t="s">
-        <v>10</v>
+        <v>60</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
       </c>
       <c r="C224">
         <v>2020</v>
       </c>
-      <c r="D224" t="s">
-        <v>30</v>
+      <c r="D224">
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>11</v>
-      </c>
-      <c r="B225" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
       </c>
       <c r="C225">
         <v>2020</v>
       </c>
-      <c r="D225" t="s">
-        <v>30</v>
+      <c r="D225">
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>12</v>
-      </c>
-      <c r="B226" t="s">
         <v>10</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
       </c>
       <c r="C226">
         <v>2020</v>
       </c>
-      <c r="D226" t="s">
-        <v>30</v>
+      <c r="D226">
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>16</v>
-      </c>
-      <c r="B227" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
       </c>
       <c r="C227">
         <v>2020</v>
       </c>
-      <c r="D227" t="s">
-        <v>30</v>
+      <c r="D227">
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>46</v>
-      </c>
-      <c r="B228" t="s">
-        <v>10</v>
+        <v>41</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
       </c>
       <c r="C228">
         <v>2020</v>
       </c>
-      <c r="D228" t="s">
-        <v>30</v>
+      <c r="D228">
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>14</v>
-      </c>
-      <c r="B229" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
       </c>
       <c r="C229">
         <v>2020</v>
       </c>
-      <c r="D229" t="s">
-        <v>30</v>
+      <c r="D229">
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>9</v>
-      </c>
-      <c r="B230" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
       </c>
       <c r="C230">
         <v>2020</v>
       </c>
-      <c r="D230" t="s">
-        <v>30</v>
+      <c r="D230">
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>15</v>
-      </c>
-      <c r="B231" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
       </c>
       <c r="C231">
         <v>2020</v>
       </c>
-      <c r="D231" t="s">
-        <v>30</v>
+      <c r="D231">
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>77</v>
-      </c>
-      <c r="B232" t="s">
-        <v>10</v>
+        <v>72</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
       </c>
       <c r="C232">
         <v>2021</v>
       </c>
-      <c r="D232" t="s">
-        <v>30</v>
+      <c r="D232">
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>45</v>
-      </c>
-      <c r="B233" t="s">
-        <v>4</v>
+        <v>40</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
       </c>
       <c r="C233">
         <v>2021</v>
       </c>
-      <c r="D233" t="s">
-        <v>30</v>
+      <c r="D233">
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>78</v>
-      </c>
-      <c r="B234" t="s">
-        <v>4</v>
+        <v>73</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
       </c>
       <c r="C234">
         <v>2021</v>
       </c>
-      <c r="D234" t="s">
-        <v>30</v>
+      <c r="D234">
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>8</v>
-      </c>
-      <c r="B235" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
       </c>
       <c r="C235">
         <v>2021</v>
       </c>
-      <c r="D235" t="s">
-        <v>30</v>
+      <c r="D235">
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>12</v>
-      </c>
-      <c r="B236" t="s">
         <v>10</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
       </c>
       <c r="C236">
         <v>2021</v>
       </c>
-      <c r="D236" t="s">
-        <v>30</v>
+      <c r="D236">
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>33</v>
-      </c>
-      <c r="B237" t="s">
-        <v>10</v>
+        <v>28</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
       </c>
       <c r="C237">
         <v>2021</v>
       </c>
-      <c r="D237" t="s">
-        <v>30</v>
+      <c r="D237">
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>9</v>
-      </c>
-      <c r="B238" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
       </c>
       <c r="C238">
         <v>2021</v>
       </c>
-      <c r="D238" t="s">
-        <v>30</v>
+      <c r="D238">
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>15</v>
-      </c>
-      <c r="B239" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
       </c>
       <c r="C239">
         <v>2021</v>
       </c>
-      <c r="D239" t="s">
-        <v>30</v>
+      <c r="D239">
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>14</v>
-      </c>
-      <c r="B240" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
       </c>
       <c r="C240">
         <v>2021</v>
       </c>
-      <c r="D240" t="s">
-        <v>30</v>
+      <c r="D240">
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>16</v>
-      </c>
-      <c r="B241" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
       </c>
       <c r="C241">
         <v>2021</v>
       </c>
-      <c r="D241" t="s">
-        <v>30</v>
+      <c r="D241">
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>3</v>
       </c>
-      <c r="B242" t="s">
-        <v>4</v>
+      <c r="B242">
+        <v>1</v>
       </c>
       <c r="C242">
         <v>2021</v>
       </c>
-      <c r="D242" t="s">
-        <v>30</v>
+      <c r="D242">
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>46</v>
-      </c>
-      <c r="B243" t="s">
-        <v>4</v>
+        <v>41</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
       </c>
       <c r="C243">
         <v>2021</v>
       </c>
-      <c r="D243" t="s">
-        <v>30</v>
+      <c r="D243">
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>79</v>
-      </c>
-      <c r="B244" t="s">
-        <v>10</v>
+        <v>74</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
       </c>
       <c r="C244">
         <v>2021</v>
       </c>
-      <c r="D244" t="s">
-        <v>30</v>
+      <c r="D244">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
